--- a/data/trans_camb/P25_12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_12-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,17</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 9,89</t>
+          <t>-1,93; 9,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 9,99</t>
+          <t>-1,02; 9,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 8,23</t>
+          <t>1,79; 17,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 13,65</t>
+          <t>-6,41; 11,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 7,06</t>
+          <t>-8,79; 7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 6,18</t>
+          <t>0,91; 21,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 9,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 8,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 6,48</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 18,53</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>102,97%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>112,34%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>173,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>81,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 406,23</t>
+          <t>-26,55; 327,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 384,26</t>
+          <t>-19,04; 354,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 318,13</t>
+          <t>18,42; 592,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 54,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 41,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 90,81</t>
+          <t>-24,57; 77,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 69,84</t>
+          <t>-34,16; 49,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 62,91</t>
+          <t>2,97; 143,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 103,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-15,9; 85,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; 61,87</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 176,33</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,09</t>
+          <t>-4,05; 4,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,11</t>
+          <t>-2,58; 5,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,36</t>
+          <t>0,39; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 14,88</t>
+          <t>-5,06; 5,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,82</t>
+          <t>-7,32; 3,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,01</t>
+          <t>-2,42; 9,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 3,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 2,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 7,61</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 52,53</t>
+          <t>-47,54; 113,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 112,32</t>
+          <t>-32,45; 151,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 160,33</t>
+          <t>-3,11; 231,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 48,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 33,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,43; 126,83</t>
+          <t>-25,98; 41,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 32,73</t>
+          <t>-37,95; 23,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 34,79</t>
+          <t>-13,1; 69,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 107,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 38,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-29,12; 31,02</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 80,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,79</t>
+          <t>-4,27; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,05</t>
+          <t>-3,47; 3,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,74</t>
+          <t>-0,96; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,77</t>
+          <t>-2,93; 6,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,4</t>
+          <t>-4,15; 4,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,3</t>
+          <t>0,13; 10,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 3,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 3,07</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 8,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>-11,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>52,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 76,69</t>
+          <t>-57,02; 81,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 72,23</t>
+          <t>-45,6; 104,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,21; 101,9</t>
+          <t>-14,81; 217,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 72,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 66,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 99,77</t>
+          <t>-21,5; 76,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 51,4</t>
+          <t>-32,01; 57,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 51,2</t>
+          <t>-0,46; 119,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 74,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-24,2; 53,57</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 48,67</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 119,65</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,62</t>
+          <t>-3,06; 5,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,4</t>
+          <t>-0,76; 6,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,68</t>
+          <t>-2,63; 6,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,59</t>
+          <t>0,86; 11,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 7,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 58,63</t>
+          <t>-41,21; 115,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 86,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,39; 116,85</t>
+          <t>-18,51; 159,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 37,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 24,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,0; 92,23</t>
+          <t>-18,85; 60,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 32,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 29,2</t>
+          <t>7,02; 109,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,67; 81,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-17,48; 57,72</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 93,35</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 2,66</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 3,78</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 6,89</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,77</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 9,33</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 3,07</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 2,68</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 7,38</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>78,43%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>54,37%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 57,5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-11,79; 77,89</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>24,79; 139,78</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 37,55</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; 22,73</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>18,74; 72,19</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 33,38</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 29,21</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>33,74; 81,77</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
